--- a/Code/Results/Cases/Case_3_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.194341385074267</v>
+        <v>0.7654999511490246</v>
       </c>
       <c r="C2">
-        <v>0.1296874019231211</v>
+        <v>0.1755721224176696</v>
       </c>
       <c r="D2">
-        <v>0.0556242271843459</v>
+        <v>0.06333682137619334</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9245933233363246</v>
+        <v>1.353772499386906</v>
       </c>
       <c r="G2">
-        <v>0.859875451773803</v>
+        <v>1.240737194241873</v>
       </c>
       <c r="H2">
-        <v>0.6006738223407808</v>
+        <v>1.18635307643612</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.980778704179329</v>
+        <v>0.3856059181388503</v>
       </c>
       <c r="L2">
-        <v>0.2093157147501898</v>
+        <v>0.2744899118084021</v>
       </c>
       <c r="M2">
-        <v>0.2687695761161457</v>
+        <v>0.2262901638526174</v>
       </c>
       <c r="N2">
-        <v>1.21350012549901</v>
+        <v>2.395346053067556</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.041960652977451</v>
+        <v>0.7271029672535008</v>
       </c>
       <c r="C3">
-        <v>0.1256049269660906</v>
+        <v>0.1740247446825904</v>
       </c>
       <c r="D3">
-        <v>0.05387284056535435</v>
+        <v>0.06252604219389468</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8742949458316147</v>
+        <v>1.348334223858807</v>
       </c>
       <c r="G3">
-        <v>0.8180410209478026</v>
+        <v>1.236880471304218</v>
       </c>
       <c r="H3">
-        <v>0.5882403188372791</v>
+        <v>1.189187681038732</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8497425516749786</v>
+        <v>0.3494102083500366</v>
       </c>
       <c r="L3">
-        <v>0.1909290138977795</v>
+        <v>0.2711994070398376</v>
       </c>
       <c r="M3">
-        <v>0.2370128298613139</v>
+        <v>0.2188805668913361</v>
       </c>
       <c r="N3">
-        <v>1.257675243350491</v>
+        <v>2.414386363511419</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9492611756703013</v>
+        <v>0.7039131688004545</v>
       </c>
       <c r="C4">
-        <v>0.123093094472722</v>
+        <v>0.1730567633522355</v>
       </c>
       <c r="D4">
-        <v>0.0527861910969456</v>
+        <v>0.06201887037882159</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8449199923873323</v>
+        <v>1.345685181285155</v>
       </c>
       <c r="G4">
-        <v>0.793868668211914</v>
+        <v>1.235167028246693</v>
       </c>
       <c r="H4">
-        <v>0.581489177294074</v>
+        <v>1.191397437311863</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7697657222410328</v>
+        <v>0.3273191877308363</v>
       </c>
       <c r="L4">
-        <v>0.1798937828677154</v>
+        <v>0.269313512932932</v>
       </c>
       <c r="M4">
-        <v>0.2177581699988416</v>
+        <v>0.2144494050240056</v>
       </c>
       <c r="N4">
-        <v>1.286249261630246</v>
+        <v>2.426767200345495</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.911678145783327</v>
+        <v>0.6945605978342826</v>
       </c>
       <c r="C5">
-        <v>0.1220676759242139</v>
+        <v>0.1726578048892193</v>
       </c>
       <c r="D5">
-        <v>0.05234052515172039</v>
+        <v>0.06180985158111341</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8333071760975486</v>
+        <v>1.344779225183188</v>
       </c>
       <c r="G5">
-        <v>0.784377198193539</v>
+        <v>1.234633330564122</v>
       </c>
       <c r="H5">
-        <v>0.5789502503809842</v>
+        <v>1.19241602080119</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7372757191741357</v>
+        <v>0.3183506570591135</v>
       </c>
       <c r="L5">
-        <v>0.1754565151725274</v>
+        <v>0.2685788642012383</v>
       </c>
       <c r="M5">
-        <v>0.2099674873387087</v>
+        <v>0.2126735114319835</v>
       </c>
       <c r="N5">
-        <v>1.298248143694707</v>
+        <v>2.431985976116053</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9054484719551681</v>
+        <v>0.6930135078772821</v>
       </c>
       <c r="C6">
-        <v>0.1218972809982617</v>
+        <v>0.1725912864382977</v>
       </c>
       <c r="D6">
-        <v>0.05226635051638695</v>
+        <v>0.06177500297357952</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8313998725929963</v>
+        <v>1.344639274618132</v>
       </c>
       <c r="G6">
-        <v>0.7828222126277353</v>
+        <v>1.23455464681598</v>
       </c>
       <c r="H6">
-        <v>0.5785412035441624</v>
+        <v>1.192592290562729</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7318863432134606</v>
+        <v>0.3168634837530391</v>
       </c>
       <c r="L6">
-        <v>0.1747231944050753</v>
+        <v>0.2684589233902486</v>
       </c>
       <c r="M6">
-        <v>0.2086770585328921</v>
+        <v>0.2123804302781274</v>
       </c>
       <c r="N6">
-        <v>1.300261693650768</v>
+        <v>2.432863027214943</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9487535683489341</v>
+        <v>0.7037866416521297</v>
       </c>
       <c r="C7">
-        <v>0.1230792733820749</v>
+        <v>0.1730514010706727</v>
       </c>
       <c r="D7">
-        <v>0.05278019222768293</v>
+        <v>0.06201606094989032</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8447619572013778</v>
+        <v>1.345672260516665</v>
       </c>
       <c r="G7">
-        <v>0.7937392374403487</v>
+        <v>1.23515916446172</v>
       </c>
       <c r="H7">
-        <v>0.5814540897814311</v>
+        <v>1.191410696038233</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7693271658595791</v>
+        <v>0.3271980980838407</v>
       </c>
       <c r="L7">
-        <v>0.1798337041548663</v>
+        <v>0.2693034680040824</v>
       </c>
       <c r="M7">
-        <v>0.2176528836330185</v>
+        <v>0.2144253337735371</v>
       </c>
       <c r="N7">
-        <v>1.286409659173337</v>
+        <v>2.426836880186563</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.141606364148942</v>
+        <v>0.7521807437069015</v>
       </c>
       <c r="C8">
-        <v>0.1282805103982625</v>
+        <v>0.17504229775016</v>
       </c>
       <c r="D8">
-        <v>0.05502268586662851</v>
+        <v>0.0630592105073795</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9069239817176538</v>
+        <v>1.351754164638749</v>
       </c>
       <c r="G8">
-        <v>0.8451231762560667</v>
+        <v>1.239271492863907</v>
       </c>
       <c r="H8">
-        <v>0.5961973689022102</v>
+        <v>1.187233092158209</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9354857340153444</v>
+        <v>0.3730980944102669</v>
       </c>
       <c r="L8">
-        <v>0.2029205632617561</v>
+        <v>0.2733274608289022</v>
       </c>
       <c r="M8">
-        <v>0.2577656865067866</v>
+        <v>0.2237108130191139</v>
       </c>
       <c r="N8">
-        <v>1.228424532572532</v>
+        <v>2.401767927409352</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.527817138966867</v>
+        <v>0.850134373392649</v>
       </c>
       <c r="C9">
-        <v>0.1384651233636092</v>
+        <v>0.1788047172473952</v>
       </c>
       <c r="D9">
-        <v>0.05933139889985384</v>
+        <v>0.06503031878743215</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.041833752422264</v>
+        <v>1.3691576065942</v>
       </c>
       <c r="G9">
-        <v>0.9589512332266565</v>
+        <v>1.252534531316655</v>
       </c>
       <c r="H9">
-        <v>0.632590064896192</v>
+        <v>1.182761759521028</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.266080310146293</v>
+        <v>0.4641604835762507</v>
       </c>
       <c r="L9">
-        <v>0.2504175919887786</v>
+        <v>0.2822841451164066</v>
       </c>
       <c r="M9">
-        <v>0.338637597673511</v>
+        <v>0.2428565180256115</v>
       </c>
       <c r="N9">
-        <v>1.126698421427015</v>
+        <v>2.358083257876672</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.81823813488063</v>
+        <v>0.9239561619995129</v>
       </c>
       <c r="C10">
-        <v>0.1459787604776608</v>
+        <v>0.1814830441988704</v>
       </c>
       <c r="D10">
-        <v>0.06244455687660633</v>
+        <v>0.06643276443971757</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.150438447469654</v>
+        <v>1.385288169202695</v>
       </c>
       <c r="G10">
-        <v>1.05211327439099</v>
+        <v>1.265457884767756</v>
       </c>
       <c r="H10">
-        <v>0.6645969905983549</v>
+        <v>1.181742625166237</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.513303707019872</v>
+        <v>0.5317061443498972</v>
       </c>
       <c r="L10">
-        <v>0.2869779962039871</v>
+        <v>0.2895133864222998</v>
       </c>
       <c r="M10">
-        <v>0.399813778856597</v>
+        <v>0.2574928112322539</v>
       </c>
       <c r="N10">
-        <v>1.059967938604274</v>
+        <v>2.32932613291419</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.952235786224492</v>
+        <v>0.9579417340861482</v>
       </c>
       <c r="C11">
-        <v>0.1494135875395628</v>
+        <v>0.1826829415226072</v>
       </c>
       <c r="D11">
-        <v>0.06384990706846594</v>
+        <v>0.06706078661241577</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.202279885445975</v>
+        <v>1.393353960148943</v>
       </c>
       <c r="G11">
-        <v>1.096943089903604</v>
+        <v>1.272029635478361</v>
       </c>
       <c r="H11">
-        <v>0.6804729219045811</v>
+        <v>1.18177061958329</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.627060173898855</v>
+        <v>0.5625743694722871</v>
       </c>
       <c r="L11">
-        <v>0.3040457986131599</v>
+        <v>0.2929429140789495</v>
       </c>
       <c r="M11">
-        <v>0.4281256451648119</v>
+        <v>0.264274852356543</v>
       </c>
       <c r="N11">
-        <v>1.031519201453662</v>
+        <v>2.316968622617125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.003286375027642</v>
+        <v>0.9708689835372297</v>
       </c>
       <c r="C12">
-        <v>0.150717596225725</v>
+        <v>0.1831346570081038</v>
       </c>
       <c r="D12">
-        <v>0.06438055856956026</v>
+        <v>0.0672971629368817</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.222295044584172</v>
+        <v>1.396512985933839</v>
       </c>
       <c r="G12">
-        <v>1.114305457722551</v>
+        <v>1.274617947161033</v>
       </c>
       <c r="H12">
-        <v>0.6866894267051435</v>
+        <v>1.181851861107489</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.670353753011511</v>
+        <v>0.5742835701518914</v>
       </c>
       <c r="L12">
-        <v>0.3105782991469539</v>
+        <v>0.2942618171124423</v>
       </c>
       <c r="M12">
-        <v>0.4389248547201419</v>
+        <v>0.2668608024912231</v>
       </c>
       <c r="N12">
-        <v>1.021036320345814</v>
+        <v>2.312393343871754</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.992277359826403</v>
+        <v>0.9680823113410497</v>
       </c>
       <c r="C13">
-        <v>0.1504365920458852</v>
+        <v>0.1830374903006344</v>
       </c>
       <c r="D13">
-        <v>0.06426634043920387</v>
+        <v>0.06724631936224768</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.217966783500543</v>
+        <v>1.39582797708087</v>
       </c>
       <c r="G13">
-        <v>1.110548410071871</v>
+        <v>1.274056070694513</v>
       </c>
       <c r="H13">
-        <v>0.6853412309959879</v>
+        <v>1.18183122333636</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.661019566002466</v>
+        <v>0.5717608955484934</v>
       </c>
       <c r="L13">
-        <v>0.3091682165434833</v>
+        <v>0.2939768694156868</v>
       </c>
       <c r="M13">
-        <v>0.4365954307748225</v>
+        <v>0.2663030842311045</v>
       </c>
       <c r="N13">
-        <v>1.023280831830782</v>
+        <v>2.313374074249516</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.956429337539163</v>
+        <v>0.959004113538839</v>
       </c>
       <c r="C14">
-        <v>0.1495207972641097</v>
+        <v>0.1827201577363198</v>
       </c>
       <c r="D14">
-        <v>0.06389359441082831</v>
+        <v>0.06708026239402898</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.203918648345748</v>
+        <v>1.393611756971026</v>
       </c>
       <c r="G14">
-        <v>1.098363556032737</v>
+        <v>1.272240578074204</v>
       </c>
       <c r="H14">
-        <v>0.6809801635194503</v>
+        <v>1.181775887919301</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.630617440668146</v>
+        <v>0.5635372916093218</v>
       </c>
       <c r="L14">
-        <v>0.3045818032379515</v>
+        <v>0.2930510161499456</v>
       </c>
       <c r="M14">
-        <v>0.4290124844842111</v>
+        <v>0.2644872449907112</v>
       </c>
       <c r="N14">
-        <v>1.030650860771743</v>
+        <v>2.316590121951783</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.934512746689279</v>
+        <v>0.9534509513431999</v>
       </c>
       <c r="C15">
-        <v>0.1489603061454119</v>
+        <v>0.1825254359856672</v>
       </c>
       <c r="D15">
-        <v>0.06366507935907606</v>
+        <v>0.06697835960834908</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.195364800501025</v>
+        <v>1.392267891711413</v>
       </c>
       <c r="G15">
-        <v>1.090951343027498</v>
+        <v>1.271141527518466</v>
       </c>
       <c r="H15">
-        <v>0.6783360122101811</v>
+        <v>1.181751191368591</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.612024399919875</v>
+        <v>0.5585027033862104</v>
       </c>
       <c r="L15">
-        <v>0.3017817200410917</v>
+        <v>0.2924865355234942</v>
       </c>
       <c r="M15">
-        <v>0.424378155525325</v>
+        <v>0.2633772986812062</v>
       </c>
       <c r="N15">
-        <v>1.035203477943696</v>
+        <v>2.31857362234306</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.809522133982483</v>
+        <v>0.9217432139244011</v>
       </c>
       <c r="C16">
-        <v>0.1457546996080765</v>
+        <v>0.1814042559797286</v>
       </c>
       <c r="D16">
-        <v>0.06235249862461956</v>
+        <v>0.06639152047264218</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.147102326434549</v>
+        <v>1.384775699384519</v>
       </c>
       <c r="G16">
-        <v>1.049235683730387</v>
+        <v>1.265042355987347</v>
       </c>
       <c r="H16">
-        <v>0.6635872289669891</v>
+        <v>1.181750683574307</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.505898030258123</v>
+        <v>0.5296916561323997</v>
       </c>
       <c r="L16">
-        <v>0.285871903503903</v>
+        <v>0.2892920901419984</v>
       </c>
       <c r="M16">
-        <v>0.3979739724408944</v>
+        <v>0.2570520755245269</v>
       </c>
       <c r="N16">
-        <v>1.061866829419273</v>
+        <v>2.330148307167207</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.733352804347135</v>
+        <v>0.9023946515559089</v>
       </c>
       <c r="C17">
-        <v>0.1437930843522395</v>
+        <v>0.1807117125457509</v>
       </c>
       <c r="D17">
-        <v>0.06154451907610081</v>
+        <v>0.06602895607582582</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.118141987004648</v>
+        <v>1.380365927684849</v>
       </c>
       <c r="G17">
-        <v>1.024295308954549</v>
+        <v>1.261478239641335</v>
       </c>
       <c r="H17">
-        <v>0.6548869290365502</v>
+        <v>1.181876246698351</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.441145121742125</v>
+        <v>0.512053037934038</v>
       </c>
       <c r="L17">
-        <v>0.2762279995604189</v>
+        <v>0.2873684580211489</v>
       </c>
       <c r="M17">
-        <v>0.3819054476483217</v>
+        <v>0.2532034367774116</v>
       </c>
       <c r="N17">
-        <v>1.078723261592692</v>
+        <v>2.33743456650835</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.689717092778039</v>
+        <v>0.8913038892665099</v>
       </c>
       <c r="C18">
-        <v>0.1426663413649578</v>
+        <v>0.180311639863362</v>
       </c>
       <c r="D18">
-        <v>0.06107876775862309</v>
+        <v>0.06581948199119125</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.101711952120596</v>
+        <v>1.377898057879577</v>
       </c>
       <c r="G18">
-        <v>1.010178674799818</v>
+        <v>1.259493462659819</v>
       </c>
       <c r="H18">
-        <v>0.650005603993776</v>
+        <v>1.181994742352032</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.404020726620473</v>
+        <v>0.5019210924621973</v>
       </c>
       <c r="L18">
-        <v>0.2707217256072028</v>
+        <v>0.2862753016000141</v>
       </c>
       <c r="M18">
-        <v>0.3727081116360935</v>
+        <v>0.2510014701402241</v>
       </c>
       <c r="N18">
-        <v>1.08859714210746</v>
+        <v>2.341693594058604</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.674971724063397</v>
+        <v>0.8875552896078034</v>
       </c>
       <c r="C19">
-        <v>0.1422850818690762</v>
+        <v>0.1801758833130052</v>
       </c>
       <c r="D19">
-        <v>0.06092089572808135</v>
+        <v>0.06574839710940239</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.096187064475885</v>
+        <v>1.377074246592215</v>
       </c>
       <c r="G19">
-        <v>1.005437262573963</v>
+        <v>1.258832647829379</v>
       </c>
       <c r="H19">
-        <v>0.6483735221455333</v>
+        <v>1.18204281231823</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.391470724465592</v>
+        <v>0.4984928854908617</v>
       </c>
       <c r="L19">
-        <v>0.2688641849293276</v>
+        <v>0.2859074574902962</v>
       </c>
       <c r="M19">
-        <v>0.3696015003493187</v>
+        <v>0.2502579286266169</v>
       </c>
       <c r="N19">
-        <v>1.091970467040603</v>
+        <v>2.343147331957013</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.741442797182572</v>
+        <v>0.9044504070955384</v>
       </c>
       <c r="C20">
-        <v>0.1440017374930918</v>
+        <v>0.1807856150706471</v>
       </c>
       <c r="D20">
-        <v>0.0616306355067735</v>
+        <v>0.06606764868743653</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.121201117018174</v>
+        <v>1.380828264353255</v>
       </c>
       <c r="G20">
-        <v>1.026926377253758</v>
+        <v>1.261850896345834</v>
       </c>
       <c r="H20">
-        <v>0.655800267768285</v>
+        <v>1.181858091365811</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.448025571028467</v>
+        <v>0.5139293221025412</v>
       </c>
       <c r="L20">
-        <v>0.277250357148219</v>
+        <v>0.2875718593169267</v>
       </c>
       <c r="M20">
-        <v>0.3836112661710018</v>
+        <v>0.2536119238746792</v>
       </c>
       <c r="N20">
-        <v>1.076910280660123</v>
+        <v>2.336651876364144</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.966950080087059</v>
+        <v>0.9616690388219524</v>
       </c>
       <c r="C21">
-        <v>0.1497896908836225</v>
+        <v>0.1828134381920776</v>
       </c>
       <c r="D21">
-        <v>0.06400312001105846</v>
+        <v>0.06712907656795863</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.208034225675647</v>
+        <v>1.394259873297486</v>
       </c>
       <c r="G21">
-        <v>1.101931774676004</v>
+        <v>1.272771124751344</v>
       </c>
       <c r="H21">
-        <v>0.6822554319033145</v>
+        <v>1.181790224510365</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.639541151343025</v>
+        <v>0.5659522206620977</v>
       </c>
       <c r="L21">
-        <v>0.3059270085987578</v>
+        <v>0.2933224134350496</v>
       </c>
       <c r="M21">
-        <v>0.4312375864025242</v>
+        <v>0.2650201202230988</v>
       </c>
       <c r="N21">
-        <v>1.02847810094859</v>
+        <v>2.315642660899769</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.116150533797736</v>
+        <v>0.999400571990634</v>
       </c>
       <c r="C22">
-        <v>0.1535922510543202</v>
+        <v>0.1841232351641864</v>
       </c>
       <c r="D22">
-        <v>0.06554481270641332</v>
+        <v>0.06781437104327637</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.267040074275286</v>
+        <v>1.403648401093463</v>
       </c>
       <c r="G22">
-        <v>1.153221529747583</v>
+        <v>1.280489488733878</v>
       </c>
       <c r="H22">
-        <v>0.7007462567318896</v>
+        <v>1.182157594236941</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.76598541938074</v>
+        <v>0.6000690791790078</v>
       </c>
       <c r="L22">
-        <v>0.32507617455299</v>
+        <v>0.2971985415568525</v>
       </c>
       <c r="M22">
-        <v>0.4628240479790549</v>
+        <v>0.2725793911845926</v>
       </c>
       <c r="N22">
-        <v>0.9985237079421481</v>
+        <v>2.302519574186128</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.0363397942034</v>
+        <v>0.979231943296611</v>
       </c>
       <c r="C23">
-        <v>0.1515606228248032</v>
+        <v>0.183425590749863</v>
       </c>
       <c r="D23">
-        <v>0.06472278014786781</v>
+        <v>0.06744938934599531</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.2353293766203</v>
+        <v>1.398581730123396</v>
       </c>
       <c r="G23">
-        <v>1.125627611172192</v>
+        <v>1.276316824342942</v>
       </c>
       <c r="H23">
-        <v>0.6907620494689581</v>
+        <v>1.181923865979826</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.698372079247378</v>
+        <v>0.5818496586620938</v>
       </c>
       <c r="L23">
-        <v>0.3148163335417991</v>
+        <v>0.2951190151416228</v>
       </c>
       <c r="M23">
-        <v>0.4459206072603195</v>
+        <v>0.2685354357232796</v>
       </c>
       <c r="N23">
-        <v>1.014349933194488</v>
+        <v>2.309467980029659</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.737784831288451</v>
+        <v>0.9035208972457269</v>
       </c>
       <c r="C24">
-        <v>0.1439074023103331</v>
+        <v>0.1807522097208718</v>
       </c>
       <c r="D24">
-        <v>0.06159170611195464</v>
+        <v>0.06605015896749222</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.119817402682756</v>
+        <v>1.380619032099688</v>
       </c>
       <c r="G24">
-        <v>1.025736182583074</v>
+        <v>1.261682218022599</v>
       </c>
       <c r="H24">
-        <v>0.6553869728574853</v>
+        <v>1.181866155136618</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.444914601625896</v>
+        <v>0.5130810268169057</v>
       </c>
       <c r="L24">
-        <v>0.2767880309906587</v>
+        <v>0.2874798618262133</v>
       </c>
       <c r="M24">
-        <v>0.3828399395818636</v>
+        <v>0.2534272136257414</v>
       </c>
       <c r="N24">
-        <v>1.077729360845865</v>
+        <v>2.337005512341406</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.422301569133936</v>
+        <v>0.8233090940973682</v>
       </c>
       <c r="C25">
-        <v>0.1357075906604379</v>
+        <v>0.1778020063879566</v>
       </c>
       <c r="D25">
-        <v>0.05817512951339765</v>
+        <v>0.06450509010410954</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.003790385459169</v>
+        <v>1.36386262208238</v>
       </c>
       <c r="G25">
-        <v>0.9266040318126727</v>
+        <v>1.248388964633094</v>
       </c>
       <c r="H25">
-        <v>0.6218739404626774</v>
+        <v>1.183573276973647</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.175994453178419</v>
+        <v>0.439412960259034</v>
       </c>
       <c r="L25">
-        <v>0.2372997362361389</v>
+        <v>0.2797471313973858</v>
       </c>
       <c r="M25">
-        <v>0.3164821514445677</v>
+        <v>0.2375769215921224</v>
       </c>
       <c r="N25">
-        <v>1.152865877898329</v>
+        <v>2.369314943023994</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7654999511490246</v>
+        <v>1.194341385074154</v>
       </c>
       <c r="C2">
-        <v>0.1755721224176696</v>
+        <v>0.1296874019233556</v>
       </c>
       <c r="D2">
-        <v>0.06333682137619334</v>
+        <v>0.05562422718458748</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.353772499386906</v>
+        <v>0.9245933233363104</v>
       </c>
       <c r="G2">
-        <v>1.240737194241873</v>
+        <v>0.8598754517739025</v>
       </c>
       <c r="H2">
-        <v>1.18635307643612</v>
+        <v>0.6006738223406813</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3856059181388503</v>
+        <v>0.9807787041793006</v>
       </c>
       <c r="L2">
-        <v>0.2744899118084021</v>
+        <v>0.2093157147502041</v>
       </c>
       <c r="M2">
-        <v>0.2262901638526174</v>
+        <v>0.2687695761161457</v>
       </c>
       <c r="N2">
-        <v>2.395346053067556</v>
+        <v>1.213500125498932</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7271029672535008</v>
+        <v>1.041960652977053</v>
       </c>
       <c r="C3">
-        <v>0.1740247446825904</v>
+        <v>0.1256049269663393</v>
       </c>
       <c r="D3">
-        <v>0.06252604219389468</v>
+        <v>0.05387284056534725</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.348334223858807</v>
+        <v>0.8742949458316218</v>
       </c>
       <c r="G3">
-        <v>1.236880471304218</v>
+        <v>0.8180410209478737</v>
       </c>
       <c r="H3">
-        <v>1.189187681038732</v>
+        <v>0.5882403188372791</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3494102083500366</v>
+        <v>0.8497425516749217</v>
       </c>
       <c r="L3">
-        <v>0.2711994070398376</v>
+        <v>0.1909290138977155</v>
       </c>
       <c r="M3">
-        <v>0.2188805668913361</v>
+        <v>0.2370128298613103</v>
       </c>
       <c r="N3">
-        <v>2.414386363511419</v>
+        <v>1.257675243350484</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7039131688004545</v>
+        <v>0.949261175670074</v>
       </c>
       <c r="C4">
-        <v>0.1730567633522355</v>
+        <v>0.1230930944726083</v>
       </c>
       <c r="D4">
-        <v>0.06201887037882159</v>
+        <v>0.0527861910969385</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.345685181285155</v>
+        <v>0.8449199923873394</v>
       </c>
       <c r="G4">
-        <v>1.235167028246693</v>
+        <v>0.7938686682119283</v>
       </c>
       <c r="H4">
-        <v>1.191397437311863</v>
+        <v>0.5814891772941735</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3273191877308363</v>
+        <v>0.7697657222410896</v>
       </c>
       <c r="L4">
-        <v>0.269313512932932</v>
+        <v>0.1798937828677367</v>
       </c>
       <c r="M4">
-        <v>0.2144494050240056</v>
+        <v>0.2177581699988451</v>
       </c>
       <c r="N4">
-        <v>2.426767200345495</v>
+        <v>1.286249261630296</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6945605978342826</v>
+        <v>0.9116781457836396</v>
       </c>
       <c r="C5">
-        <v>0.1726578048892193</v>
+        <v>0.1220676759245549</v>
       </c>
       <c r="D5">
-        <v>0.06180985158111341</v>
+        <v>0.05234052515152854</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.344779225183188</v>
+        <v>0.8333071760975557</v>
       </c>
       <c r="G5">
-        <v>1.234633330564122</v>
+        <v>0.7843771981935674</v>
       </c>
       <c r="H5">
-        <v>1.19241602080119</v>
+        <v>0.57895025038097</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3183506570591135</v>
+        <v>0.7372757191741641</v>
       </c>
       <c r="L5">
-        <v>0.2685788642012383</v>
+        <v>0.1754565151726268</v>
       </c>
       <c r="M5">
-        <v>0.2126735114319835</v>
+        <v>0.2099674873387052</v>
       </c>
       <c r="N5">
-        <v>2.431985976116053</v>
+        <v>1.298248143694693</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6930135078772821</v>
+        <v>0.9054484719551112</v>
       </c>
       <c r="C6">
-        <v>0.1725912864382977</v>
+        <v>0.1218972809977927</v>
       </c>
       <c r="D6">
-        <v>0.06177500297357952</v>
+        <v>0.05226635051632655</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.344639274618132</v>
+        <v>0.8313998725930034</v>
       </c>
       <c r="G6">
-        <v>1.23455464681598</v>
+        <v>0.7828222126277922</v>
       </c>
       <c r="H6">
-        <v>1.192592290562729</v>
+        <v>0.5785412035441766</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3168634837530391</v>
+        <v>0.7318863432133753</v>
       </c>
       <c r="L6">
-        <v>0.2684589233902486</v>
+        <v>0.1747231944049616</v>
       </c>
       <c r="M6">
-        <v>0.2123804302781274</v>
+        <v>0.2086770585328956</v>
       </c>
       <c r="N6">
-        <v>2.432863027214943</v>
+        <v>1.300261693650725</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7037866416521297</v>
+        <v>0.9487535683488488</v>
       </c>
       <c r="C7">
-        <v>0.1730514010706727</v>
+        <v>0.1230792733817268</v>
       </c>
       <c r="D7">
-        <v>0.06201606094989032</v>
+        <v>0.05278019222751951</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.345672260516665</v>
+        <v>0.8447619572013636</v>
       </c>
       <c r="G7">
-        <v>1.23515916446172</v>
+        <v>0.7937392374403913</v>
       </c>
       <c r="H7">
-        <v>1.191410696038233</v>
+        <v>0.5814540897814453</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3271980980838407</v>
+        <v>0.7693271658595791</v>
       </c>
       <c r="L7">
-        <v>0.2693034680040824</v>
+        <v>0.1798337041548237</v>
       </c>
       <c r="M7">
-        <v>0.2144253337735371</v>
+        <v>0.2176528836330007</v>
       </c>
       <c r="N7">
-        <v>2.426836880186563</v>
+        <v>1.286409659173366</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7521807437069015</v>
+        <v>1.141606364149055</v>
       </c>
       <c r="C8">
-        <v>0.17504229775016</v>
+        <v>0.1282805103981417</v>
       </c>
       <c r="D8">
-        <v>0.0630592105073795</v>
+        <v>0.05502268586668535</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.351754164638749</v>
+        <v>0.9069239817176395</v>
       </c>
       <c r="G8">
-        <v>1.239271492863907</v>
+        <v>0.8451231762560383</v>
       </c>
       <c r="H8">
-        <v>1.187233092158209</v>
+        <v>0.5961973689020965</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3730980944102669</v>
+        <v>0.9354857340152591</v>
       </c>
       <c r="L8">
-        <v>0.2733274608289022</v>
+        <v>0.2029205632618201</v>
       </c>
       <c r="M8">
-        <v>0.2237108130191139</v>
+        <v>0.2577656865067688</v>
       </c>
       <c r="N8">
-        <v>2.401767927409352</v>
+        <v>1.228424532572468</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.850134373392649</v>
+        <v>1.527817138966867</v>
       </c>
       <c r="C9">
-        <v>0.1788047172473952</v>
+        <v>0.1384651233638508</v>
       </c>
       <c r="D9">
-        <v>0.06503031878743215</v>
+        <v>0.05933139889985739</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.3691576065942</v>
+        <v>1.041833752422264</v>
       </c>
       <c r="G9">
-        <v>1.252534531316655</v>
+        <v>0.958951233226685</v>
       </c>
       <c r="H9">
-        <v>1.182761759521028</v>
+        <v>0.632590064896192</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4641604835762507</v>
+        <v>1.266080310146293</v>
       </c>
       <c r="L9">
-        <v>0.2822841451164066</v>
+        <v>0.250417591988878</v>
       </c>
       <c r="M9">
-        <v>0.2428565180256115</v>
+        <v>0.338637597673511</v>
       </c>
       <c r="N9">
-        <v>2.358083257876672</v>
+        <v>1.126698421427022</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9239561619995129</v>
+        <v>1.818238134880687</v>
       </c>
       <c r="C10">
-        <v>0.1814830441988704</v>
+        <v>0.1459787604776679</v>
       </c>
       <c r="D10">
-        <v>0.06643276443971757</v>
+        <v>0.06244455687641448</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.385288169202695</v>
+        <v>1.150438447469654</v>
       </c>
       <c r="G10">
-        <v>1.265457884767756</v>
+        <v>1.05211327439099</v>
       </c>
       <c r="H10">
-        <v>1.181742625166237</v>
+        <v>0.6645969905982554</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5317061443498972</v>
+        <v>1.513303707019787</v>
       </c>
       <c r="L10">
-        <v>0.2895133864222998</v>
+        <v>0.2869779962040013</v>
       </c>
       <c r="M10">
-        <v>0.2574928112322539</v>
+        <v>0.3998137788565899</v>
       </c>
       <c r="N10">
-        <v>2.32932613291419</v>
+        <v>1.05996793860426</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9579417340861482</v>
+        <v>1.952235786224463</v>
       </c>
       <c r="C11">
-        <v>0.1826829415226072</v>
+        <v>0.149413587539712</v>
       </c>
       <c r="D11">
-        <v>0.06706078661241577</v>
+        <v>0.06384990706835225</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.393353960148943</v>
+        <v>1.202279885445961</v>
       </c>
       <c r="G11">
-        <v>1.272029635478361</v>
+        <v>1.096943089903661</v>
       </c>
       <c r="H11">
-        <v>1.18177061958329</v>
+        <v>0.6804729219045811</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5625743694722871</v>
+        <v>1.627060173898855</v>
       </c>
       <c r="L11">
-        <v>0.2929429140789495</v>
+        <v>0.3040457986131457</v>
       </c>
       <c r="M11">
-        <v>0.264274852356543</v>
+        <v>0.4281256451648119</v>
       </c>
       <c r="N11">
-        <v>2.316968622617125</v>
+        <v>1.031519201453641</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9708689835372297</v>
+        <v>2.003286375027756</v>
       </c>
       <c r="C12">
-        <v>0.1831346570081038</v>
+        <v>0.1507175962258387</v>
       </c>
       <c r="D12">
-        <v>0.0672971629368817</v>
+        <v>0.06438055856937552</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.396512985933839</v>
+        <v>1.222295044584172</v>
       </c>
       <c r="G12">
-        <v>1.274617947161033</v>
+        <v>1.11430545772258</v>
       </c>
       <c r="H12">
-        <v>1.181851861107489</v>
+        <v>0.6866894267051578</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5742835701518914</v>
+        <v>1.670353753011653</v>
       </c>
       <c r="L12">
-        <v>0.2942618171124423</v>
+        <v>0.3105782991469681</v>
       </c>
       <c r="M12">
-        <v>0.2668608024912231</v>
+        <v>0.438924854720149</v>
       </c>
       <c r="N12">
-        <v>2.312393343871754</v>
+        <v>1.021036320345829</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9680823113410497</v>
+        <v>1.992277359826346</v>
       </c>
       <c r="C13">
-        <v>0.1830374903006344</v>
+        <v>0.1504365920458497</v>
       </c>
       <c r="D13">
-        <v>0.06724631936224768</v>
+        <v>0.0642663404393673</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.39582797708087</v>
+        <v>1.217966783500529</v>
       </c>
       <c r="G13">
-        <v>1.274056070694513</v>
+        <v>1.110548410071857</v>
       </c>
       <c r="H13">
-        <v>1.18183122333636</v>
+        <v>0.6853412309961016</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5717608955484934</v>
+        <v>1.661019566002437</v>
       </c>
       <c r="L13">
-        <v>0.2939768694156868</v>
+        <v>0.3091682165435827</v>
       </c>
       <c r="M13">
-        <v>0.2663030842311045</v>
+        <v>0.4365954307748154</v>
       </c>
       <c r="N13">
-        <v>2.313374074249516</v>
+        <v>1.023280831830846</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.959004113538839</v>
+        <v>1.956429337539305</v>
       </c>
       <c r="C14">
-        <v>0.1827201577363198</v>
+        <v>0.1495207972642518</v>
       </c>
       <c r="D14">
-        <v>0.06708026239402898</v>
+        <v>0.06389359441102016</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.393611756971026</v>
+        <v>1.203918648345748</v>
       </c>
       <c r="G14">
-        <v>1.272240578074204</v>
+        <v>1.098363556032737</v>
       </c>
       <c r="H14">
-        <v>1.181775887919301</v>
+        <v>0.6809801635195782</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5635372916093218</v>
+        <v>1.630617440668033</v>
       </c>
       <c r="L14">
-        <v>0.2930510161499456</v>
+        <v>0.3045818032379088</v>
       </c>
       <c r="M14">
-        <v>0.2644872449907112</v>
+        <v>0.429012484484204</v>
       </c>
       <c r="N14">
-        <v>2.316590121951783</v>
+        <v>1.030650860771729</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9534509513431999</v>
+        <v>1.934512746689251</v>
       </c>
       <c r="C15">
-        <v>0.1825254359856672</v>
+        <v>0.1489603061454261</v>
       </c>
       <c r="D15">
-        <v>0.06697835960834908</v>
+        <v>0.06366507935931764</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.392267891711413</v>
+        <v>1.195364800501039</v>
       </c>
       <c r="G15">
-        <v>1.271141527518466</v>
+        <v>1.090951343027484</v>
       </c>
       <c r="H15">
-        <v>1.181751191368591</v>
+        <v>0.6783360122101811</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5585027033862104</v>
+        <v>1.612024399919989</v>
       </c>
       <c r="L15">
-        <v>0.2924865355234942</v>
+        <v>0.3017817200411486</v>
       </c>
       <c r="M15">
-        <v>0.2633772986812062</v>
+        <v>0.4243781555253179</v>
       </c>
       <c r="N15">
-        <v>2.31857362234306</v>
+        <v>1.035203477943696</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9217432139244011</v>
+        <v>1.809522133982313</v>
       </c>
       <c r="C16">
-        <v>0.1814042559797286</v>
+        <v>0.1457546996079699</v>
       </c>
       <c r="D16">
-        <v>0.06639152047264218</v>
+        <v>0.06235249862446324</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.384775699384519</v>
+        <v>1.147102326434535</v>
       </c>
       <c r="G16">
-        <v>1.265042355987347</v>
+        <v>1.049235683730373</v>
       </c>
       <c r="H16">
-        <v>1.181750683574307</v>
+        <v>0.6635872289669891</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5296916561323997</v>
+        <v>1.50589803025801</v>
       </c>
       <c r="L16">
-        <v>0.2892920901419984</v>
+        <v>0.2858719035039456</v>
       </c>
       <c r="M16">
-        <v>0.2570520755245269</v>
+        <v>0.3979739724408802</v>
       </c>
       <c r="N16">
-        <v>2.330148307167207</v>
+        <v>1.061866829419323</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9023946515559089</v>
+        <v>1.733352804347135</v>
       </c>
       <c r="C17">
-        <v>0.1807117125457509</v>
+        <v>0.1437930843522182</v>
       </c>
       <c r="D17">
-        <v>0.06602895607582582</v>
+        <v>0.06154451907610081</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.380365927684849</v>
+        <v>1.118141987004677</v>
       </c>
       <c r="G17">
-        <v>1.261478239641335</v>
+        <v>1.024295308954521</v>
       </c>
       <c r="H17">
-        <v>1.181876246698351</v>
+        <v>0.6548869290364223</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.512053037934038</v>
+        <v>1.441145121742125</v>
       </c>
       <c r="L17">
-        <v>0.2873684580211489</v>
+        <v>0.2762279995603762</v>
       </c>
       <c r="M17">
-        <v>0.2532034367774116</v>
+        <v>0.3819054476483359</v>
       </c>
       <c r="N17">
-        <v>2.33743456650835</v>
+        <v>1.078723261592756</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8913038892665099</v>
+        <v>1.689717092778125</v>
       </c>
       <c r="C18">
-        <v>0.180311639863362</v>
+        <v>0.142666341364972</v>
       </c>
       <c r="D18">
-        <v>0.06581948199119125</v>
+        <v>0.06107876775843835</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.377898057879577</v>
+        <v>1.10171195212061</v>
       </c>
       <c r="G18">
-        <v>1.259493462659819</v>
+        <v>1.010178674799818</v>
       </c>
       <c r="H18">
-        <v>1.181994742352032</v>
+        <v>0.650005603993776</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5019210924621973</v>
+        <v>1.404020726620558</v>
       </c>
       <c r="L18">
-        <v>0.2862753016000141</v>
+        <v>0.2707217256072454</v>
       </c>
       <c r="M18">
-        <v>0.2510014701402241</v>
+        <v>0.3727081116361148</v>
       </c>
       <c r="N18">
-        <v>2.341693594058604</v>
+        <v>1.08859714210741</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8875552896078034</v>
+        <v>1.674971724063425</v>
       </c>
       <c r="C19">
-        <v>0.1801758833130052</v>
+        <v>0.1422850818693249</v>
       </c>
       <c r="D19">
-        <v>0.06574839710940239</v>
+        <v>0.06092089572789661</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.377074246592215</v>
+        <v>1.096187064475885</v>
       </c>
       <c r="G19">
-        <v>1.258832647829379</v>
+        <v>1.005437262573921</v>
       </c>
       <c r="H19">
-        <v>1.18204281231823</v>
+        <v>0.6483735221455191</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4984928854908617</v>
+        <v>1.391470724465478</v>
       </c>
       <c r="L19">
-        <v>0.2859074574902962</v>
+        <v>0.2688641849294271</v>
       </c>
       <c r="M19">
-        <v>0.2502579286266169</v>
+        <v>0.3696015003493116</v>
       </c>
       <c r="N19">
-        <v>2.343147331957013</v>
+        <v>1.091970467040539</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9044504070955384</v>
+        <v>1.7414427971826</v>
       </c>
       <c r="C20">
-        <v>0.1807856150706471</v>
+        <v>0.1440017374929496</v>
       </c>
       <c r="D20">
-        <v>0.06606764868743653</v>
+        <v>0.06163063550696535</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.380828264353255</v>
+        <v>1.121201117018188</v>
       </c>
       <c r="G20">
-        <v>1.261850896345834</v>
+        <v>1.026926377253773</v>
       </c>
       <c r="H20">
-        <v>1.181858091365811</v>
+        <v>0.6558002677682992</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5139293221025412</v>
+        <v>1.448025571028467</v>
       </c>
       <c r="L20">
-        <v>0.2875718593169267</v>
+        <v>0.2772503571481622</v>
       </c>
       <c r="M20">
-        <v>0.2536119238746792</v>
+        <v>0.3836112661710089</v>
       </c>
       <c r="N20">
-        <v>2.336651876364144</v>
+        <v>1.076910280660123</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9616690388219524</v>
+        <v>1.966950080087003</v>
       </c>
       <c r="C21">
-        <v>0.1828134381920776</v>
+        <v>0.1497896908839138</v>
       </c>
       <c r="D21">
-        <v>0.06712907656795863</v>
+        <v>0.06400312001104425</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.394259873297486</v>
+        <v>1.208034225675661</v>
       </c>
       <c r="G21">
-        <v>1.272771124751344</v>
+        <v>1.101931774675933</v>
       </c>
       <c r="H21">
-        <v>1.181790224510365</v>
+        <v>0.6822554319033145</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5659522206620977</v>
+        <v>1.639541151343025</v>
       </c>
       <c r="L21">
-        <v>0.2933224134350496</v>
+        <v>0.3059270085988004</v>
       </c>
       <c r="M21">
-        <v>0.2650201202230988</v>
+        <v>0.4312375864025242</v>
       </c>
       <c r="N21">
-        <v>2.315642660899769</v>
+        <v>1.028478100948583</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.999400571990634</v>
+        <v>2.116150533797963</v>
       </c>
       <c r="C22">
-        <v>0.1841232351641864</v>
+        <v>0.1535922510544268</v>
       </c>
       <c r="D22">
-        <v>0.06781437104327637</v>
+        <v>0.06554481270652701</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.403648401093463</v>
+        <v>1.267040074275272</v>
       </c>
       <c r="G22">
-        <v>1.280489488733878</v>
+        <v>1.153221529747597</v>
       </c>
       <c r="H22">
-        <v>1.182157594236941</v>
+        <v>0.7007462567318896</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6000690791790078</v>
+        <v>1.765985419380797</v>
       </c>
       <c r="L22">
-        <v>0.2971985415568525</v>
+        <v>0.3250761745531463</v>
       </c>
       <c r="M22">
-        <v>0.2725793911845926</v>
+        <v>0.4628240479790691</v>
       </c>
       <c r="N22">
-        <v>2.302519574186128</v>
+        <v>0.9985237079420983</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.979231943296611</v>
+        <v>2.036339794203627</v>
       </c>
       <c r="C23">
-        <v>0.183425590749863</v>
+        <v>0.1515606228248103</v>
       </c>
       <c r="D23">
-        <v>0.06744938934599531</v>
+        <v>0.06472278014787491</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.398581730123396</v>
+        <v>1.235329376620285</v>
       </c>
       <c r="G23">
-        <v>1.276316824342942</v>
+        <v>1.125627611172163</v>
       </c>
       <c r="H23">
-        <v>1.181923865979826</v>
+        <v>0.690762049468816</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5818496586620938</v>
+        <v>1.698372079247349</v>
       </c>
       <c r="L23">
-        <v>0.2951190151416228</v>
+        <v>0.3148163335418133</v>
       </c>
       <c r="M23">
-        <v>0.2685354357232796</v>
+        <v>0.4459206072603337</v>
       </c>
       <c r="N23">
-        <v>2.309467980029659</v>
+        <v>1.014349933194481</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9035208972457269</v>
+        <v>1.737784831288423</v>
       </c>
       <c r="C24">
-        <v>0.1807522097208718</v>
+        <v>0.1439074023107239</v>
       </c>
       <c r="D24">
-        <v>0.06605015896749222</v>
+        <v>0.06159170611188358</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.380619032099688</v>
+        <v>1.119817402682742</v>
       </c>
       <c r="G24">
-        <v>1.261682218022599</v>
+        <v>1.025736182583032</v>
       </c>
       <c r="H24">
-        <v>1.181866155136618</v>
+        <v>0.6553869728573432</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5130810268169057</v>
+        <v>1.44491460162584</v>
       </c>
       <c r="L24">
-        <v>0.2874798618262133</v>
+        <v>0.2767880309906872</v>
       </c>
       <c r="M24">
-        <v>0.2534272136257414</v>
+        <v>0.3828399395818707</v>
       </c>
       <c r="N24">
-        <v>2.337005512341406</v>
+        <v>1.077729360845858</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8233090940973682</v>
+        <v>1.422301569133907</v>
       </c>
       <c r="C25">
-        <v>0.1778020063879566</v>
+        <v>0.1357075906603242</v>
       </c>
       <c r="D25">
-        <v>0.06450509010410954</v>
+        <v>0.0581751295134687</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.36386262208238</v>
+        <v>1.003790385459169</v>
       </c>
       <c r="G25">
-        <v>1.248388964633094</v>
+        <v>0.9266040318126727</v>
       </c>
       <c r="H25">
-        <v>1.183573276973647</v>
+        <v>0.6218739404625779</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.439412960259034</v>
+        <v>1.175994453178419</v>
       </c>
       <c r="L25">
-        <v>0.2797471313973858</v>
+        <v>0.2372997362361815</v>
       </c>
       <c r="M25">
-        <v>0.2375769215921224</v>
+        <v>0.3164821514445606</v>
       </c>
       <c r="N25">
-        <v>2.369314943023994</v>
+        <v>1.152865877898364</v>
       </c>
       <c r="O25">
         <v>0</v>
